--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1627,28 +1627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.8049208803218</v>
+        <v>246.3245697727593</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.2805369478389</v>
+        <v>337.0321434359903</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.0621839479858</v>
+        <v>304.866268694144</v>
       </c>
       <c r="AD2" t="n">
-        <v>177804.9208803218</v>
+        <v>246324.5697727593</v>
       </c>
       <c r="AE2" t="n">
-        <v>243280.5369478389</v>
+        <v>337032.1434359903</v>
       </c>
       <c r="AF2" t="n">
         <v>1.141684155891553e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>220062.1839479858</v>
+        <v>304866.268694144</v>
       </c>
     </row>
     <row r="3">
@@ -1733,28 +1733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.3125700588249</v>
+        <v>192.2220220216423</v>
       </c>
       <c r="AB3" t="n">
-        <v>196.0865808587681</v>
+        <v>263.0066507669969</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.3723527909075</v>
+        <v>237.9056651500242</v>
       </c>
       <c r="AD3" t="n">
-        <v>143312.5700588249</v>
+        <v>192222.0220216423</v>
       </c>
       <c r="AE3" t="n">
-        <v>196086.5808587681</v>
+        <v>263006.6507669969</v>
       </c>
       <c r="AF3" t="n">
         <v>1.422525087446162e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.03009259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>177372.3527909075</v>
+        <v>237905.6651500242</v>
       </c>
     </row>
   </sheetData>
@@ -2030,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.0898561370329</v>
+        <v>225.819534769008</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.3055155988132</v>
+        <v>308.9762499255722</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.6616207768223</v>
+        <v>279.4879902836574</v>
       </c>
       <c r="AD2" t="n">
-        <v>158089.8561370329</v>
+        <v>225819.534769008</v>
       </c>
       <c r="AE2" t="n">
-        <v>216305.5155988132</v>
+        <v>308976.2499255723</v>
       </c>
       <c r="AF2" t="n">
         <v>1.364087212283842e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.59259259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>195661.6207768223</v>
+        <v>279487.9902836574</v>
       </c>
     </row>
     <row r="3">
@@ -2136,28 +2136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.9395871111427</v>
+        <v>189.309178472759</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.8397609011318</v>
+        <v>259.0211697178287</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.4354047730866</v>
+        <v>234.3005528185296</v>
       </c>
       <c r="AD3" t="n">
-        <v>140939.5871111427</v>
+        <v>189309.178472759</v>
       </c>
       <c r="AE3" t="n">
-        <v>192839.7609011318</v>
+        <v>259021.1697178287</v>
       </c>
       <c r="AF3" t="n">
         <v>1.538090570582305e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.16898148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>174435.4047730866</v>
+        <v>234300.5528185296</v>
       </c>
     </row>
   </sheetData>
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.5976237292049</v>
+        <v>200.6631943598588</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.8448479831479</v>
+        <v>274.5562351583798</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.9628133686805</v>
+        <v>248.3529734170408</v>
       </c>
       <c r="AD2" t="n">
-        <v>144597.6237292049</v>
+        <v>200663.1943598588</v>
       </c>
       <c r="AE2" t="n">
-        <v>197844.8479831479</v>
+        <v>274556.2351583798</v>
       </c>
       <c r="AF2" t="n">
         <v>1.940793121064651e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.34953703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>178962.8133686805</v>
+        <v>248352.9734170408</v>
       </c>
     </row>
   </sheetData>
@@ -2730,28 +2730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.3110079666369</v>
+        <v>192.1049435110242</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.1384906002362</v>
+        <v>262.8464587836299</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.4691329009052</v>
+        <v>237.7607616647188</v>
       </c>
       <c r="AD2" t="n">
-        <v>135311.0079666369</v>
+        <v>192104.9435110242</v>
       </c>
       <c r="AE2" t="n">
-        <v>185138.4906002362</v>
+        <v>262846.4587836299</v>
       </c>
       <c r="AF2" t="n">
         <v>1.838357799011976e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.2962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>167469.1329009052</v>
+        <v>237760.7616647189</v>
       </c>
     </row>
   </sheetData>
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.3202023459839</v>
+        <v>217.9774194577381</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.7794648596289</v>
+        <v>298.2463217869878</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.7584071608139</v>
+        <v>269.7821114270674</v>
       </c>
       <c r="AD2" t="n">
-        <v>153320.2023459839</v>
+        <v>217977.4194577381</v>
       </c>
       <c r="AE2" t="n">
-        <v>209779.4648596289</v>
+        <v>298246.3217869878</v>
       </c>
       <c r="AF2" t="n">
         <v>2.053902029353616e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.36805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>189758.4071608139</v>
+        <v>269782.1114270674</v>
       </c>
     </row>
   </sheetData>
@@ -3324,28 +3324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.4881008511482</v>
+        <v>227.4164363241539</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.2186557028679</v>
+        <v>311.1612010836462</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.3921734744557</v>
+        <v>281.4644127698037</v>
       </c>
       <c r="AD2" t="n">
-        <v>159488.1008511482</v>
+        <v>227416.4363241539</v>
       </c>
       <c r="AE2" t="n">
-        <v>218218.655702868</v>
+        <v>311161.2010836462</v>
       </c>
       <c r="AF2" t="n">
         <v>1.319478421970763e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.69675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>197392.1734744557</v>
+        <v>281464.4127698037</v>
       </c>
     </row>
     <row r="3">
@@ -3430,28 +3430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.5048055509825</v>
+        <v>190.0162946561921</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.613117706198</v>
+        <v>259.9886772757657</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.1349534900906</v>
+        <v>235.1757228130428</v>
       </c>
       <c r="AD3" t="n">
-        <v>141504.8055509825</v>
+        <v>190016.2946561921</v>
       </c>
       <c r="AE3" t="n">
-        <v>193613.117706198</v>
+        <v>259988.6772757657</v>
       </c>
       <c r="AF3" t="n">
         <v>1.507087959253213e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.12268518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>175134.9534900906</v>
+        <v>235175.7228130428</v>
       </c>
     </row>
   </sheetData>
@@ -3727,28 +3727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.870834143801</v>
+        <v>227.1301428779952</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.8470606295336</v>
+        <v>310.7694817602366</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.5788499309288</v>
+        <v>281.1100785888387</v>
       </c>
       <c r="AD2" t="n">
-        <v>162870.834143801</v>
+        <v>227130.1428779952</v>
       </c>
       <c r="AE2" t="n">
-        <v>222847.0606295335</v>
+        <v>310769.4817602366</v>
       </c>
       <c r="AF2" t="n">
         <v>2.095302056526838e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.34027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>201578.8499309288</v>
+        <v>281110.0785888387</v>
       </c>
     </row>
   </sheetData>
@@ -4024,28 +4024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.311785581808</v>
+        <v>196.7409630568803</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.612531035162</v>
+        <v>269.1896652530145</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.4207385995875</v>
+        <v>243.4985814114136</v>
       </c>
       <c r="AD2" t="n">
-        <v>139311.785581808</v>
+        <v>196740.9630568803</v>
       </c>
       <c r="AE2" t="n">
-        <v>190612.531035162</v>
+        <v>269189.6652530145</v>
       </c>
       <c r="AF2" t="n">
         <v>1.633611129844382e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.43518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>172420.7385995875</v>
+        <v>243498.5814114136</v>
       </c>
     </row>
     <row r="3">
@@ -4130,28 +4130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.5717230731173</v>
+        <v>196.0009005481896</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.5999448615184</v>
+        <v>268.1770790793709</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.5047922291824</v>
+        <v>242.5826350410086</v>
       </c>
       <c r="AD3" t="n">
-        <v>138571.7230731173</v>
+        <v>196000.9005481896</v>
       </c>
       <c r="AE3" t="n">
-        <v>189599.9448615184</v>
+        <v>268177.0790793708</v>
       </c>
       <c r="AF3" t="n">
         <v>1.660216280884494e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>171504.7922291824</v>
+        <v>242582.6350410086</v>
       </c>
     </row>
   </sheetData>
@@ -4427,28 +4427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.5591967640446</v>
+        <v>225.0826643792725</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.5794440336517</v>
+        <v>307.9680313499093</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.0048444627917</v>
+        <v>278.5759946738117</v>
       </c>
       <c r="AD2" t="n">
-        <v>157559.1967640446</v>
+        <v>225082.6643792725</v>
       </c>
       <c r="AE2" t="n">
-        <v>215579.4440336517</v>
+        <v>307968.0313499093</v>
       </c>
       <c r="AF2" t="n">
         <v>1.393059025413501e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.65046296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>195004.8444627917</v>
+        <v>278575.9946738118</v>
       </c>
     </row>
     <row r="3">
@@ -4533,28 +4533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.1870786335735</v>
+        <v>188.4093764117989</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.8101456037911</v>
+        <v>257.7900208415585</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.5040545146496</v>
+        <v>233.1869030630819</v>
       </c>
       <c r="AD3" t="n">
-        <v>140187.0786335735</v>
+        <v>188409.3764117989</v>
       </c>
       <c r="AE3" t="n">
-        <v>191810.1456037911</v>
+        <v>257790.0208415585</v>
       </c>
       <c r="AF3" t="n">
         <v>1.574804091272112e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.19212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>173504.0545146496</v>
+        <v>233186.9030630819</v>
       </c>
     </row>
   </sheetData>
@@ -4830,28 +4830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.1355701177458</v>
+        <v>242.373929728658</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.2599693541543</v>
+        <v>331.6267034377157</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.52077227903</v>
+        <v>299.9767163027203</v>
       </c>
       <c r="AD2" t="n">
-        <v>174135.5701177458</v>
+        <v>242373.929728658</v>
       </c>
       <c r="AE2" t="n">
-        <v>238259.9693541543</v>
+        <v>331626.7034377157</v>
       </c>
       <c r="AF2" t="n">
         <v>1.208122466892316e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.26388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>215520.77227903</v>
+        <v>299976.7163027202</v>
       </c>
     </row>
     <row r="3">
@@ -4936,28 +4936,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.3848518898058</v>
+        <v>192.1658723847374</v>
       </c>
       <c r="AB3" t="n">
-        <v>196.1854800487654</v>
+        <v>262.9298243566365</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.4618131810174</v>
+        <v>237.836170944442</v>
       </c>
       <c r="AD3" t="n">
-        <v>143384.8518898058</v>
+        <v>192165.8723847374</v>
       </c>
       <c r="AE3" t="n">
-        <v>196185.4800487654</v>
+        <v>262929.8243566365</v>
       </c>
       <c r="AF3" t="n">
         <v>1.434501796512365e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.16898148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>177461.8131810174</v>
+        <v>237836.170944442</v>
       </c>
     </row>
   </sheetData>
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.9625660338783</v>
+        <v>193.9795327426287</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.3982252094343</v>
+        <v>265.4113544713499</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.5132016105597</v>
+        <v>240.0808673078574</v>
       </c>
       <c r="AD2" t="n">
-        <v>136962.5660338782</v>
+        <v>193979.5327426287</v>
       </c>
       <c r="AE2" t="n">
-        <v>187398.2252094343</v>
+        <v>265411.3544713499</v>
       </c>
       <c r="AF2" t="n">
         <v>1.753197028554413e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.38888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>169513.2016105597</v>
+        <v>240080.8673078574</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.0404741498649</v>
+        <v>201.3787545540406</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.4507754658763</v>
+        <v>275.5352961843465</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.510911982882</v>
+        <v>249.2385942328104</v>
       </c>
       <c r="AD2" t="n">
-        <v>145040.4741498649</v>
+        <v>201378.7545540406</v>
       </c>
       <c r="AE2" t="n">
-        <v>198450.7754658763</v>
+        <v>275535.2961843465</v>
       </c>
       <c r="AF2" t="n">
         <v>1.889124060287031e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.02546296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>179510.911982882</v>
+        <v>249238.5942328104</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.256438755132</v>
+        <v>209.3640452599165</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.3780236496029</v>
+        <v>286.4611232142834</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.5405420943368</v>
+        <v>259.121675665508</v>
       </c>
       <c r="AD2" t="n">
-        <v>144256.438755132</v>
+        <v>209364.0452599165</v>
       </c>
       <c r="AE2" t="n">
-        <v>197378.0236496029</v>
+        <v>286461.1232142834</v>
       </c>
       <c r="AF2" t="n">
         <v>1.994335650884997e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.78935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>178540.5420943368</v>
+        <v>259121.675665508</v>
       </c>
     </row>
   </sheetData>
@@ -9233,28 +9233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.6287908251058</v>
+        <v>255.503194634912</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.8807686204114</v>
+        <v>349.5907429047315</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.0324987732134</v>
+        <v>316.2262930556976</v>
       </c>
       <c r="AD2" t="n">
-        <v>182628.7908251058</v>
+        <v>255503.194634912</v>
       </c>
       <c r="AE2" t="n">
-        <v>249880.7686204114</v>
+        <v>349590.7429047315</v>
       </c>
       <c r="AF2" t="n">
         <v>2.093165955159821e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.12268518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>226032.4987732134</v>
+        <v>316226.2930556976</v>
       </c>
     </row>
   </sheetData>
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.7565918401993</v>
+        <v>210.0313073481571</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.325866932017</v>
+        <v>287.3741006409395</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.6842403336566</v>
+        <v>259.9475198079362</v>
       </c>
       <c r="AD2" t="n">
-        <v>142756.5918401993</v>
+        <v>210031.3073481571</v>
       </c>
       <c r="AE2" t="n">
-        <v>195325.866932017</v>
+        <v>287374.1006409395</v>
       </c>
       <c r="AF2" t="n">
         <v>1.521893925458004e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.90972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>176684.2403336566</v>
+        <v>259947.5198079362</v>
       </c>
     </row>
     <row r="3">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.576249913703</v>
+        <v>197.1973758405201</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.9743828014035</v>
+        <v>269.8141493591011</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.7480557411211</v>
+        <v>244.0634656308845</v>
       </c>
       <c r="AD3" t="n">
-        <v>139576.249913703</v>
+        <v>197197.3758405201</v>
       </c>
       <c r="AE3" t="n">
-        <v>190974.3828014035</v>
+        <v>269814.1493591011</v>
       </c>
       <c r="AF3" t="n">
         <v>1.607141281463698e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.27314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>172748.0557411211</v>
+        <v>244063.4656308845</v>
       </c>
     </row>
   </sheetData>
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.5435388995717</v>
+        <v>229.6636750315095</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.0309967202465</v>
+        <v>314.2359722242232</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.9361086122819</v>
+        <v>284.2457320681935</v>
       </c>
       <c r="AD2" t="n">
-        <v>161543.5388995717</v>
+        <v>229663.6750315095</v>
       </c>
       <c r="AE2" t="n">
-        <v>221030.9967202465</v>
+        <v>314235.9722242233</v>
       </c>
       <c r="AF2" t="n">
         <v>1.267869355027719e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>199936.1086122819</v>
+        <v>284245.7320681935</v>
       </c>
     </row>
     <row r="3">
@@ -10039,28 +10039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.5401701876914</v>
+        <v>191.1886597635667</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.0297492792064</v>
+        <v>261.5927589367732</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.4163837340264</v>
+        <v>236.626713171667</v>
       </c>
       <c r="AD3" t="n">
-        <v>142540.1701876914</v>
+        <v>191188.6597635667</v>
       </c>
       <c r="AE3" t="n">
-        <v>195029.7492792064</v>
+        <v>261592.7589367732</v>
       </c>
       <c r="AF3" t="n">
         <v>1.466045572987658e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.16898148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>176416.3837340264</v>
+        <v>236626.713171667</v>
       </c>
     </row>
   </sheetData>
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.1424268058026</v>
+        <v>313.3718005754724</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.3133127046486</v>
+        <v>428.7691225354852</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.174638650133</v>
+        <v>387.8479992619407</v>
       </c>
       <c r="AD2" t="n">
-        <v>223142.4268058026</v>
+        <v>313371.8005754724</v>
       </c>
       <c r="AE2" t="n">
-        <v>305313.3127046486</v>
+        <v>428769.1225354852</v>
       </c>
       <c r="AF2" t="n">
         <v>1.979969540620811e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.06944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>276174.638650133</v>
+        <v>387847.9992619407</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.9903706293406</v>
+        <v>192.649017792427</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.0680245667124</v>
+        <v>263.5908852183081</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.3099534502304</v>
+        <v>238.4341410852807</v>
       </c>
       <c r="AD2" t="n">
-        <v>135990.3706293406</v>
+        <v>192649.017792427</v>
       </c>
       <c r="AE2" t="n">
-        <v>186068.0245667124</v>
+        <v>263590.8852183081</v>
       </c>
       <c r="AF2" t="n">
         <v>1.839908898822236e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>168309.9534502304</v>
+        <v>238434.1410852807</v>
       </c>
     </row>
   </sheetData>
@@ -10930,28 +10930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.0820103463646</v>
+        <v>195.3102128146118</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.929898304175</v>
+        <v>267.2320496512979</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.8986939748554</v>
+        <v>241.7277978951934</v>
       </c>
       <c r="AD2" t="n">
-        <v>138082.0103463646</v>
+        <v>195310.2128146118</v>
       </c>
       <c r="AE2" t="n">
-        <v>188929.898304175</v>
+        <v>267232.0496512979</v>
       </c>
       <c r="AF2" t="n">
         <v>1.690964983568768e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.40046296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>170898.6939748554</v>
+        <v>241727.7978951934</v>
       </c>
     </row>
     <row r="3">
@@ -11036,28 +11036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.2149498378266</v>
+        <v>195.4431523060737</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.1117919812695</v>
+        <v>267.4139433283924</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.0632279746975</v>
+        <v>241.8923318950355</v>
       </c>
       <c r="AD3" t="n">
-        <v>138214.9498378266</v>
+        <v>195443.1523060737</v>
       </c>
       <c r="AE3" t="n">
-        <v>189111.7919812695</v>
+        <v>267413.9433283924</v>
       </c>
       <c r="AF3" t="n">
         <v>1.69063171297867e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.41203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>171063.2279746975</v>
+        <v>241892.3318950355</v>
       </c>
     </row>
   </sheetData>
